--- a/Financials/Yearly/LOVV_YR_FIN.xlsx
+++ b/Financials/Yearly/LOVV_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088707C2-7B68-4318-9C24-80D39209071F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOVV" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,34 +689,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,7 +743,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -735,7 +770,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -762,7 +797,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -789,7 +824,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -802,7 +837,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -829,7 +864,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -856,7 +891,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,7 +918,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -910,7 +945,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -920,7 +955,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,7 +982,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,7 +1009,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,7 +1022,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1049,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1076,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1068,7 +1103,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1130,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1157,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1184,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1176,7 +1211,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1238,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1265,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1292,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1319,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1311,7 +1346,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1338,7 +1373,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1365,7 +1400,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1392,7 +1427,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1419,12 +1454,12 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1486,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1499,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1477,7 +1512,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1504,7 +1539,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1531,7 +1566,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1558,7 +1593,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1585,7 +1620,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1612,7 +1647,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1639,7 +1674,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1666,7 +1701,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1693,7 +1728,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1720,7 +1755,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1747,7 +1782,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1774,7 +1809,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1801,7 +1836,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1828,7 +1863,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1855,7 +1890,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1868,7 +1903,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,7 +1916,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1908,7 +1943,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1935,7 +1970,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1962,7 +1997,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1989,7 +2024,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2016,7 +2051,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2043,7 +2078,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2070,7 +2105,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2132,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2124,7 +2159,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2151,7 +2186,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,7 +2199,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2191,7 +2226,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2253,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2245,7 +2280,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2272,7 +2307,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2299,7 +2334,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2326,7 +2361,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2353,7 +2388,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2380,7 +2415,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2407,7 +2442,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2434,12 +2469,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2501,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2493,7 +2528,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,7 +2541,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2533,7 +2568,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2560,7 +2595,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2622,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2614,7 +2649,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2641,7 +2676,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2668,7 +2703,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2695,7 +2730,7 @@
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,7 +2743,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2735,7 +2770,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2762,7 +2797,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2789,7 +2824,7 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2816,7 +2851,7 @@
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2829,7 +2864,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2856,7 +2891,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2883,7 +2918,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2910,7 +2945,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2937,7 +2972,7 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -2964,7 +2999,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2991,7 +3026,7 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
